--- a/BackTest/2020-01-24 BackTest PPT.xlsx
+++ b/BackTest/2020-01-24 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>63010.4172</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>63010.4172</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>49389.72869999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>10332.27109999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>10867.27109999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>18638.11949999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>13364.07669999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,19 @@
         <v>-1977.734657940004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>389</v>
+      </c>
+      <c r="J82" t="n">
+        <v>389</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3130,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>389</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3167,23 @@
         <v>-3690.747557940005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>389</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3208,19 @@
         <v>-3764.324157940005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>395</v>
+      </c>
+      <c r="J85" t="n">
+        <v>395</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3245,23 @@
         <v>-3653.324257940005</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>393.4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>395</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3286,23 @@
         <v>-3793.656957940005</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>394</v>
+      </c>
+      <c r="J87" t="n">
+        <v>395</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3327,19 @@
         <v>-3653.356957940005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>389.1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>389.1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3364,23 @@
         <v>-5345.598057940005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>392.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3407,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3444,19 @@
         <v>-5071.333457940005</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>391.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>391.7</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3481,23 @@
         <v>-5071.333457940005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>391.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3522,23 @@
         <v>-4987.433557940005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>391.2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,22 +3563,19 @@
         <v>-4903.633557940005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>391.7</v>
       </c>
       <c r="J94" t="n">
         <v>391.7</v>
       </c>
-      <c r="K94" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3808,26 +3600,23 @@
         <v>-3712.946557940005</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>391.9</v>
       </c>
       <c r="J95" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="K95" t="n">
         <v>391.7</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3852,26 +3641,23 @@
         <v>-4024.058557940005</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="J96" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="K96" t="n">
         <v>391.7</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,26 +3682,23 @@
         <v>-4231.586257940005</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="J97" t="n">
-        <v>393</v>
-      </c>
-      <c r="K97" t="n">
         <v>391.7</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3940,26 +3723,23 @@
         <v>-2957.586257940005</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J98" t="n">
-        <v>391</v>
-      </c>
-      <c r="K98" t="n">
         <v>391.7</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3984,26 +3764,23 @@
         <v>-3390.586257940005</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>392.4</v>
       </c>
       <c r="J99" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="K99" t="n">
         <v>391.7</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4028,26 +3805,23 @@
         <v>-3306.586257940005</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>390.2</v>
       </c>
       <c r="J100" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="K100" t="n">
         <v>391.7</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4072,26 +3846,23 @@
         <v>-3487.586257940005</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>392.4</v>
       </c>
       <c r="J101" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="K101" t="n">
         <v>391.7</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4116,28 +3887,25 @@
         <v>-3581.586257940005</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>391.4</v>
       </c>
       <c r="J102" t="n">
-        <v>391.4</v>
-      </c>
-      <c r="K102" t="n">
         <v>391.7</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest PPT.xlsx
+++ b/BackTest/2020-01-24 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>23105.8284</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>400.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>39313.6614</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>398</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +566,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +714,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +751,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +862,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +899,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +936,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +973,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1006,15 @@
         <v>63010.4172</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,14 +1043,16 @@
         <v>63010.4172</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1012,7 +1078,7 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1111,7 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1144,7 @@
         <v>49389.72869999999</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1177,7 @@
         <v>49389.72869999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1210,7 @@
         <v>28289.56739999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1243,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1276,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1309,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1342,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1375,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1408,7 @@
         <v>10332.27109999999</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1441,7 @@
         <v>10867.27109999999</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1507,7 @@
         <v>18638.11949999999</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1573,7 @@
         <v>13364.07669999999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -3058,10 +3124,14 @@
         <v>-2103.664657940004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>394.1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3091,15 +3161,19 @@
         <v>-1977.734657940004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>389</v>
       </c>
       <c r="J82" t="n">
-        <v>389</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,15 +3202,17 @@
         <v>-3873.664557940005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>394</v>
+      </c>
       <c r="J83" t="n">
-        <v>389</v>
+        <v>394.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3167,17 +3243,17 @@
         <v>-3690.747557940005</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>390.9</v>
       </c>
       <c r="J84" t="n">
-        <v>389</v>
+        <v>394.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3208,15 +3284,19 @@
         <v>-3764.324157940005</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>395</v>
       </c>
       <c r="J85" t="n">
-        <v>395</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,17 +3325,17 @@
         <v>-3653.324257940005</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>393.4</v>
       </c>
       <c r="J86" t="n">
-        <v>395</v>
+        <v>394.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3286,17 +3366,17 @@
         <v>-3793.656957940005</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>394</v>
       </c>
       <c r="J87" t="n">
-        <v>395</v>
+        <v>394.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3327,15 +3407,19 @@
         <v>-3653.356957940005</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>389.1</v>
       </c>
       <c r="J88" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3364,17 +3448,17 @@
         <v>-5345.598057940005</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>392.5</v>
       </c>
       <c r="J89" t="n">
-        <v>389.1</v>
+        <v>394.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3405,15 +3489,17 @@
         <v>-5021.333457940005</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J90" t="n">
-        <v>389.1</v>
+        <v>394.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3444,15 +3530,19 @@
         <v>-5071.333457940005</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>391.7</v>
       </c>
       <c r="J91" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3481,17 +3571,17 @@
         <v>-5071.333457940005</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>391.2</v>
       </c>
       <c r="J92" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3522,17 +3612,17 @@
         <v>-4987.433557940005</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>391.2</v>
       </c>
       <c r="J93" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3563,15 +3653,19 @@
         <v>-4903.633557940005</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>391.7</v>
       </c>
       <c r="J94" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3600,17 +3694,17 @@
         <v>-3712.946557940005</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>391.9</v>
       </c>
       <c r="J95" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3641,17 +3735,17 @@
         <v>-4024.058557940005</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>394.2</v>
       </c>
       <c r="J96" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3682,17 +3776,17 @@
         <v>-4231.586257940005</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>393</v>
       </c>
       <c r="J97" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3723,13 +3817,13 @@
         <v>-2957.586257940005</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>391</v>
       </c>
       <c r="J98" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3764,13 +3858,13 @@
         <v>-3390.586257940005</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>392.4</v>
       </c>
       <c r="J99" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3805,13 +3899,13 @@
         <v>-3306.586257940005</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>390.2</v>
       </c>
       <c r="J100" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3846,13 +3940,13 @@
         <v>-3487.586257940005</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>392.4</v>
       </c>
       <c r="J101" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3887,13 +3981,13 @@
         <v>-3581.586257940005</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>391.4</v>
       </c>
       <c r="J102" t="n">
-        <v>391.7</v>
+        <v>394.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3906,6 +4000,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest PPT.xlsx
+++ b/BackTest/2020-01-24 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>23105.8284</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>400.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>39313.6614</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,15 +649,11 @@
         <v>43742.5043</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,15 +682,11 @@
         <v>40790.5644</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,15 +715,11 @@
         <v>49449.12300000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +748,11 @@
         <v>57682.1695</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,15 +781,11 @@
         <v>54957.1575</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -858,15 +814,11 @@
         <v>54957.1575</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -895,15 +847,11 @@
         <v>60531.4929</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,15 +880,11 @@
         <v>65518.58199999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,15 +913,11 @@
         <v>62401.4183</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,15 +946,11 @@
         <v>63010.4172</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,12 +983,10 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1078,7 +1012,7 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1045,7 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1078,7 @@
         <v>49389.72869999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1111,7 @@
         <v>49389.72869999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -3124,14 +3058,10 @@
         <v>-2103.664657940004</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>394.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3161,634 +3091,574 @@
         <v>-1977.734657940004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>389</v>
-      </c>
-      <c r="J82" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>391</v>
+      </c>
+      <c r="E83" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1895.9299</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3873.664557940005</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>395</v>
+      </c>
+      <c r="C84" t="n">
+        <v>395</v>
+      </c>
+      <c r="D84" t="n">
+        <v>395</v>
+      </c>
+      <c r="E84" t="n">
+        <v>395</v>
+      </c>
+      <c r="F84" t="n">
+        <v>182.917</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3690.747557940005</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>73.5766</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3764.324157940005</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>394</v>
+      </c>
+      <c r="C86" t="n">
+        <v>394</v>
+      </c>
+      <c r="D86" t="n">
+        <v>394</v>
+      </c>
+      <c r="E86" t="n">
+        <v>394</v>
+      </c>
+      <c r="F86" t="n">
+        <v>110.9999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3653.324257940005</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>140.3327</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3793.656957940005</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3653.356957940005</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>391</v>
+      </c>
+      <c r="E89" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1692.2411</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-5345.598057940005</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>391</v>
+      </c>
+      <c r="C90" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>392.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>391</v>
+      </c>
+      <c r="F90" t="n">
+        <v>324.2646</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-5021.333457940005</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>50</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-5071.333457940005</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>333.7999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-5071.333457940005</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>83.8999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-4987.433557940005</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-4903.633557940005</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>394</v>
+      </c>
+      <c r="C95" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>394</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1190.687</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3712.946557940005</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>393</v>
+      </c>
+      <c r="C96" t="n">
+        <v>393</v>
+      </c>
+      <c r="D96" t="n">
+        <v>393</v>
+      </c>
+      <c r="E96" t="n">
+        <v>393</v>
+      </c>
+      <c r="F96" t="n">
+        <v>311.112</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-4024.058557940005</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>395</v>
+      </c>
+      <c r="C97" t="n">
+        <v>391</v>
+      </c>
+      <c r="D97" t="n">
+        <v>395</v>
+      </c>
+      <c r="E97" t="n">
+        <v>391</v>
+      </c>
+      <c r="F97" t="n">
+        <v>207.5277</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-4231.586257940005</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>393</v>
+      </c>
+      <c r="J97" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>391</v>
-      </c>
-      <c r="E83" t="n">
-        <v>390.7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1895.9299</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-3873.664557940005</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>394</v>
-      </c>
-      <c r="J83" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>395</v>
-      </c>
-      <c r="C84" t="n">
-        <v>395</v>
-      </c>
-      <c r="D84" t="n">
-        <v>395</v>
-      </c>
-      <c r="E84" t="n">
-        <v>395</v>
-      </c>
-      <c r="F84" t="n">
-        <v>182.917</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-3690.747557940005</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>73.5766</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-3764.324157940005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>395</v>
-      </c>
-      <c r="J85" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>394</v>
-      </c>
-      <c r="C86" t="n">
-        <v>394</v>
-      </c>
-      <c r="D86" t="n">
-        <v>394</v>
-      </c>
-      <c r="E86" t="n">
-        <v>394</v>
-      </c>
-      <c r="F86" t="n">
-        <v>110.9999</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-3653.324257940005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>140.3327</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3793.656957940005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>394</v>
-      </c>
-      <c r="J87" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="C88" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="D88" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="E88" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3653.356957940005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>389.4</v>
-      </c>
-      <c r="C89" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="D89" t="n">
-        <v>391</v>
-      </c>
-      <c r="E89" t="n">
-        <v>389.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1692.2411</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-5345.598057940005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>391</v>
-      </c>
-      <c r="C90" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>392.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>391</v>
-      </c>
-      <c r="F90" t="n">
-        <v>324.2646</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-5021.333457940005</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>50</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-5071.333457940005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>333.7999</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-5071.333457940005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>83.8999</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-4987.433557940005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="C94" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="E94" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="F94" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-4903.633557940005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>394</v>
-      </c>
-      <c r="C95" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>394</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1190.687</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-3712.946557940005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>393</v>
-      </c>
-      <c r="C96" t="n">
-        <v>393</v>
-      </c>
-      <c r="D96" t="n">
-        <v>393</v>
-      </c>
-      <c r="E96" t="n">
-        <v>393</v>
-      </c>
-      <c r="F96" t="n">
-        <v>311.112</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-4024.058557940005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>395</v>
-      </c>
-      <c r="C97" t="n">
-        <v>391</v>
-      </c>
-      <c r="D97" t="n">
-        <v>395</v>
-      </c>
-      <c r="E97" t="n">
-        <v>391</v>
-      </c>
-      <c r="F97" t="n">
-        <v>207.5277</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-4231.586257940005</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>393</v>
-      </c>
-      <c r="J97" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3693,7 @@
         <v>391</v>
       </c>
       <c r="J98" t="n">
-        <v>394.1</v>
+        <v>391.7</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3864,7 +3734,7 @@
         <v>392.4</v>
       </c>
       <c r="J99" t="n">
-        <v>394.1</v>
+        <v>391.7</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3905,7 +3775,7 @@
         <v>390.2</v>
       </c>
       <c r="J100" t="n">
-        <v>394.1</v>
+        <v>391.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3946,7 +3816,7 @@
         <v>392.4</v>
       </c>
       <c r="J101" t="n">
-        <v>394.1</v>
+        <v>391.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3987,7 +3857,7 @@
         <v>391.4</v>
       </c>
       <c r="J102" t="n">
-        <v>394.1</v>
+        <v>391.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4000,6 +3870,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest PPT.xlsx
+++ b/BackTest/2020-01-24 BackTest PPT.xlsx
@@ -649,7 +649,7 @@
         <v>43742.5043</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>40790.5644</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>49449.12300000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>57682.1695</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>60531.4929</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>65518.58199999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>62401.4183</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>28289.56739999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>

--- a/BackTest/2020-01-24 BackTest PPT.xlsx
+++ b/BackTest/2020-01-24 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1241.3</v>
       </c>
       <c r="G2" t="n">
-        <v>23205.8284</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>23105.8284</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>16207.833</v>
       </c>
       <c r="G4" t="n">
-        <v>39313.6614</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="I4" t="n">
+        <v>398</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,21 @@
         <v>775.224</v>
       </c>
       <c r="G5" t="n">
-        <v>40088.8854</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>398</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +573,21 @@
         <v>1885.1406</v>
       </c>
       <c r="G6" t="n">
-        <v>41974.026</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>398</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +609,15 @@
         <v>7914</v>
       </c>
       <c r="G7" t="n">
-        <v>49888.026</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +639,15 @@
         <v>6145.5217</v>
       </c>
       <c r="G8" t="n">
-        <v>43742.5043</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +669,15 @@
         <v>2951.9399</v>
       </c>
       <c r="G9" t="n">
-        <v>40790.5644</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +699,15 @@
         <v>8658.5586</v>
       </c>
       <c r="G10" t="n">
-        <v>49449.12300000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +729,15 @@
         <v>8233.0465</v>
       </c>
       <c r="G11" t="n">
-        <v>57682.1695</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +759,15 @@
         <v>2725.012</v>
       </c>
       <c r="G12" t="n">
-        <v>54957.1575</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +789,15 @@
         <v>1440.84415862</v>
       </c>
       <c r="G13" t="n">
-        <v>54957.1575</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +819,15 @@
         <v>5574.3354</v>
       </c>
       <c r="G14" t="n">
-        <v>60531.4929</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +849,15 @@
         <v>4987.0891</v>
       </c>
       <c r="G15" t="n">
-        <v>65518.58199999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,15 @@
         <v>3117.1637</v>
       </c>
       <c r="G16" t="n">
-        <v>62401.4183</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +909,15 @@
         <v>608.9989</v>
       </c>
       <c r="G17" t="n">
-        <v>63010.4172</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +939,15 @@
         <v>2544.1426</v>
       </c>
       <c r="G18" t="n">
-        <v>63010.4172</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,15 @@
         <v>13676.0296</v>
       </c>
       <c r="G19" t="n">
-        <v>49334.38759999999</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,15 @@
         <v>57.3411</v>
       </c>
       <c r="G20" t="n">
-        <v>49391.72869999999</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>49389.72869999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>52.8427</v>
       </c>
       <c r="G22" t="n">
-        <v>49389.72869999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>21100.1613</v>
       </c>
       <c r="G23" t="n">
-        <v>28289.56739999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>1691.6596</v>
       </c>
       <c r="G24" t="n">
-        <v>29981.22699999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>1811.4359</v>
       </c>
       <c r="G25" t="n">
-        <v>29981.22699999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>6505.4806</v>
       </c>
       <c r="G26" t="n">
-        <v>23475.74639999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>412.1454</v>
       </c>
       <c r="G27" t="n">
-        <v>23475.74639999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>449.9526</v>
       </c>
       <c r="G28" t="n">
-        <v>23475.74639999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>13143.4753</v>
       </c>
       <c r="G29" t="n">
-        <v>10332.27109999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>535</v>
       </c>
       <c r="G30" t="n">
-        <v>10867.27109999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>488.8814</v>
       </c>
       <c r="G31" t="n">
-        <v>10378.38969999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>8259.729799999999</v>
       </c>
       <c r="G32" t="n">
-        <v>18638.11949999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>5274.0428</v>
       </c>
       <c r="G33" t="n">
-        <v>13364.07669999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>128.2358</v>
       </c>
       <c r="G34" t="n">
-        <v>13364.07669999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>5867.9064</v>
       </c>
       <c r="G35" t="n">
-        <v>7496.170299999994</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>593.8999</v>
       </c>
       <c r="G36" t="n">
-        <v>6902.270399999994</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>2891.0401</v>
       </c>
       <c r="G37" t="n">
-        <v>9793.310499999994</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>584.0883</v>
       </c>
       <c r="G38" t="n">
-        <v>9209.222199999995</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>99.02970000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>9308.251899999994</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>1709.7</v>
       </c>
       <c r="G40" t="n">
-        <v>11017.95189999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>1458.925</v>
       </c>
       <c r="G41" t="n">
-        <v>11017.95189999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>3018.8509</v>
       </c>
       <c r="G42" t="n">
-        <v>7999.100999999995</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>2407.2675</v>
       </c>
       <c r="G43" t="n">
-        <v>5591.833499999995</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>635.3588999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>6227.192399999995</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>569.4422</v>
       </c>
       <c r="G45" t="n">
-        <v>6796.634599999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>207.7571</v>
       </c>
       <c r="G46" t="n">
-        <v>6588.877499999996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>214.113</v>
       </c>
       <c r="G47" t="n">
-        <v>6374.764499999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>436.6241</v>
       </c>
       <c r="G48" t="n">
-        <v>6374.764499999996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>385</v>
       </c>
       <c r="G49" t="n">
-        <v>6374.764499999996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>172.5132</v>
       </c>
       <c r="G50" t="n">
-        <v>6547.277699999996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>77.66</v>
       </c>
       <c r="G51" t="n">
-        <v>6469.617699999996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>587.3185</v>
       </c>
       <c r="G52" t="n">
-        <v>6469.617699999996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>169.2007</v>
       </c>
       <c r="G53" t="n">
-        <v>6300.416999999996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>1944.1053</v>
       </c>
       <c r="G54" t="n">
-        <v>4356.311699999996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>2271.0345</v>
       </c>
       <c r="G55" t="n">
-        <v>2085.277199999995</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>2929.265</v>
       </c>
       <c r="G56" t="n">
-        <v>-843.9878000000044</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>1371.4701</v>
       </c>
       <c r="G57" t="n">
-        <v>-843.9878000000044</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>125.62814206</v>
       </c>
       <c r="G58" t="n">
-        <v>-718.3596579400045</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>125.6281</v>
       </c>
       <c r="G59" t="n">
-        <v>-843.9877579400045</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>8276.4871</v>
       </c>
       <c r="G60" t="n">
-        <v>7432.499342059996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>7414.499342059996</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>442.3207</v>
       </c>
       <c r="G62" t="n">
-        <v>6972.178642059996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,19 @@
         <v>77.9233</v>
       </c>
       <c r="G63" t="n">
-        <v>6972.178642059996</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2323,23 @@
         <v>2744.0827</v>
       </c>
       <c r="G64" t="n">
-        <v>4228.095942059996</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2361,23 @@
         <v>217.3012</v>
       </c>
       <c r="G65" t="n">
-        <v>4010.794742059996</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>390.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2399,23 @@
         <v>751.5989</v>
       </c>
       <c r="G66" t="n">
-        <v>4762.393642059996</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>388.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2437,23 @@
         <v>372.2155</v>
       </c>
       <c r="G67" t="n">
-        <v>4390.178142059995</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2475,23 @@
         <v>926.2778</v>
       </c>
       <c r="G68" t="n">
-        <v>3463.900342059996</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>390</v>
+      </c>
+      <c r="I68" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2513,23 @@
         <v>466.051</v>
       </c>
       <c r="G69" t="n">
-        <v>3929.951342059996</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>389.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2551,23 @@
         <v>1049.2117</v>
       </c>
       <c r="G70" t="n">
-        <v>3929.951342059996</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>392.9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2589,21 @@
         <v>2580.4634</v>
       </c>
       <c r="G71" t="n">
-        <v>1349.487942059995</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2625,23 @@
         <v>108</v>
       </c>
       <c r="G72" t="n">
-        <v>1457.487942059995</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>392</v>
+      </c>
+      <c r="I72" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2663,23 @@
         <v>725.904</v>
       </c>
       <c r="G73" t="n">
-        <v>731.5839420599955</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>392.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2701,23 @@
         <v>2126.4577</v>
       </c>
       <c r="G74" t="n">
-        <v>-1394.873757940004</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>388.1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2739,23 @@
         <v>0.0001</v>
       </c>
       <c r="G75" t="n">
-        <v>-1394.873757940004</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>386.6</v>
+      </c>
+      <c r="I75" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2777,23 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-1344.873757940004</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>386.6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2815,21 @@
         <v>216.0648</v>
       </c>
       <c r="G77" t="n">
-        <v>-1560.938557940005</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2851,21 @@
         <v>532.5</v>
       </c>
       <c r="G78" t="n">
-        <v>-2093.438557940005</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2887,21 @@
         <v>540.226</v>
       </c>
       <c r="G79" t="n">
-        <v>-2633.664557940005</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2923,21 @@
         <v>728.6266000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-1905.037957940005</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2959,21 @@
         <v>198.6267</v>
       </c>
       <c r="G81" t="n">
-        <v>-2103.664657940004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2995,23 @@
         <v>125.93</v>
       </c>
       <c r="G82" t="n">
-        <v>-1977.734657940004</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>389</v>
+      </c>
+      <c r="I82" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3033,23 @@
         <v>1895.9299</v>
       </c>
       <c r="G83" t="n">
-        <v>-3873.664557940005</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>394</v>
+      </c>
+      <c r="I83" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3071,21 @@
         <v>182.917</v>
       </c>
       <c r="G84" t="n">
-        <v>-3690.747557940005</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3107,21 @@
         <v>73.5766</v>
       </c>
       <c r="G85" t="n">
-        <v>-3764.324157940005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3143,21 @@
         <v>110.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>-3653.324257940005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3179,21 @@
         <v>140.3327</v>
       </c>
       <c r="G87" t="n">
-        <v>-3793.656957940005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,22 +3215,21 @@
         <v>140.3</v>
       </c>
       <c r="G88" t="n">
-        <v>-3653.356957940005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3323,26 +3251,21 @@
         <v>1692.2411</v>
       </c>
       <c r="G89" t="n">
-        <v>-5345.598057940005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3364,26 +3287,23 @@
         <v>324.2646</v>
       </c>
       <c r="G90" t="n">
-        <v>-5021.333457940005</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>390.9</v>
       </c>
       <c r="I90" t="n">
         <v>390.9</v>
       </c>
-      <c r="J90" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,22 +3325,23 @@
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>-5071.333457940005</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>391.7</v>
       </c>
       <c r="I91" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3442,26 +3363,23 @@
         <v>333.7999</v>
       </c>
       <c r="G92" t="n">
-        <v>-5071.333457940005</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>391.2</v>
       </c>
       <c r="I92" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3483,26 +3401,23 @@
         <v>83.8999</v>
       </c>
       <c r="G93" t="n">
-        <v>-4987.433557940005</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>391.2</v>
       </c>
       <c r="I93" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,22 +3439,23 @@
         <v>83.8</v>
       </c>
       <c r="G94" t="n">
-        <v>-4903.633557940005</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>391.7</v>
       </c>
       <c r="I94" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3561,26 +3477,21 @@
         <v>1190.687</v>
       </c>
       <c r="G95" t="n">
-        <v>-3712.946557940005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3602,26 +3513,21 @@
         <v>311.112</v>
       </c>
       <c r="G96" t="n">
-        <v>-4024.058557940005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3643,26 +3549,21 @@
         <v>207.5277</v>
       </c>
       <c r="G97" t="n">
-        <v>-4231.586257940005</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>393</v>
-      </c>
-      <c r="J97" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>390.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3684,26 +3585,23 @@
         <v>1274</v>
       </c>
       <c r="G98" t="n">
-        <v>-2957.586257940005</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>391</v>
       </c>
       <c r="I98" t="n">
-        <v>391</v>
-      </c>
-      <c r="J98" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>390.9</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3725,26 +3623,23 @@
         <v>433</v>
       </c>
       <c r="G99" t="n">
-        <v>-3390.586257940005</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>392.4</v>
       </c>
       <c r="I99" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>390.9</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3766,26 +3661,23 @@
         <v>84</v>
       </c>
       <c r="G100" t="n">
-        <v>-3306.586257940005</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>390.2</v>
       </c>
       <c r="I100" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>390.9</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3807,26 +3699,23 @@
         <v>181</v>
       </c>
       <c r="G101" t="n">
-        <v>-3487.586257940005</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>392.4</v>
       </c>
       <c r="I101" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>390.9</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3848,26 +3737,21 @@
         <v>94</v>
       </c>
       <c r="G102" t="n">
-        <v>-3581.586257940005</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>391.4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>391.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>390.9</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
